--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_40.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.60731703238397</v>
+        <v>89.18418163471122</v>
       </c>
       <c r="D2" t="n">
-        <v>17.93113304290421</v>
+        <v>20.44453263464326</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>85.02897984154721</v>
+        <v>90.86444664891128</v>
       </c>
       <c r="D3" t="n">
-        <v>17.98114176110613</v>
+        <v>17.59888731913465</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.7746313662885</v>
+        <v>87.93153812876086</v>
       </c>
       <c r="D4" t="n">
-        <v>18.94022739103449</v>
+        <v>18.29848910924009</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>89.35757485415081</v>
+        <v>85.09349552951191</v>
       </c>
       <c r="D5" t="n">
-        <v>20.37607025535457</v>
+        <v>19.79109785764254</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.51608414962904</v>
+        <v>86.44244975680134</v>
       </c>
       <c r="D6" t="n">
-        <v>20.39843192424068</v>
+        <v>17.87866744495907</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>83.45535553673342</v>
+        <v>85.82606730330335</v>
       </c>
       <c r="D7" t="n">
-        <v>21.13451561212155</v>
+        <v>17.01067141155946</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.44488980501492</v>
+        <v>82.16142106515269</v>
       </c>
       <c r="D8" t="n">
-        <v>21.26137027924281</v>
+        <v>18.51441531805798</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.83202449394405</v>
+        <v>83.84398189908065</v>
       </c>
       <c r="D9" t="n">
-        <v>16.62322344153963</v>
+        <v>19.0209656275155</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.91098121632673</v>
+        <v>85.64310622600186</v>
       </c>
       <c r="D10" t="n">
-        <v>17.43552495179081</v>
+        <v>17.21695778802173</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>78.15711374525038</v>
+        <v>83.03753943353149</v>
       </c>
       <c r="D11" t="n">
-        <v>19.11320779968506</v>
+        <v>17.65202359274017</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.06638059015918</v>
+        <v>79.32805571871299</v>
       </c>
       <c r="D12" t="n">
-        <v>20.46227611147737</v>
+        <v>17.20624107154838</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>78.24382802244477</v>
+        <v>76.84235562505629</v>
       </c>
       <c r="D13" t="n">
-        <v>21.84966472344825</v>
+        <v>20.51929515509313</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.28026994067508</v>
+        <v>75.85343278266335</v>
       </c>
       <c r="D14" t="n">
-        <v>20.78515687862911</v>
+        <v>15.99643669169668</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>75.01603709477368</v>
+        <v>77.00735524194612</v>
       </c>
       <c r="D15" t="n">
-        <v>17.43451592930321</v>
+        <v>21.58800980657382</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>74.97998054527622</v>
+        <v>71.78504569882733</v>
       </c>
       <c r="D16" t="n">
-        <v>20.50721689401537</v>
+        <v>17.40134068112541</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.49741689531858</v>
+        <v>76.44314966622433</v>
       </c>
       <c r="D17" t="n">
-        <v>18.27822745430962</v>
+        <v>17.07407826720911</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.07672894346987</v>
+        <v>72.44104311984592</v>
       </c>
       <c r="D18" t="n">
-        <v>17.1245820920702</v>
+        <v>22.03476843863644</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.88326562645415</v>
+        <v>74.83191256422133</v>
       </c>
       <c r="D19" t="n">
-        <v>22.05763976380296</v>
+        <v>18.5363510334867</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.26689395229182</v>
+        <v>70.92583018916736</v>
       </c>
       <c r="D20" t="n">
-        <v>19.16602454073205</v>
+        <v>17.41790786396085</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.68916739077177</v>
+        <v>71.80732020570001</v>
       </c>
       <c r="D21" t="n">
-        <v>20.54838566712857</v>
+        <v>19.11090396831068</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.51576362015318</v>
+        <v>72.64846272235518</v>
       </c>
       <c r="D22" t="n">
-        <v>19.22918875888197</v>
+        <v>18.97409463286134</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.51201847009798</v>
+        <v>69.62334806969778</v>
       </c>
       <c r="D23" t="n">
-        <v>18.59472765924325</v>
+        <v>18.53959875943375</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.11282303614954</v>
+        <v>63.80604608909725</v>
       </c>
       <c r="D24" t="n">
-        <v>17.75107848708913</v>
+        <v>17.56264992374227</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>65.02064793768567</v>
+        <v>63.68479545403221</v>
       </c>
       <c r="D25" t="n">
-        <v>20.49929418943742</v>
+        <v>20.15184644884084</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.66323908434079</v>
+        <v>68.24450560737438</v>
       </c>
       <c r="D26" t="n">
-        <v>17.06346666181007</v>
+        <v>18.31419046526954</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.10540763388934</v>
+        <v>64.99276450009225</v>
       </c>
       <c r="D27" t="n">
-        <v>19.69168192567212</v>
+        <v>19.10544763084723</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.80346396613434</v>
+        <v>64.67443821857165</v>
       </c>
       <c r="D28" t="n">
-        <v>20.24887230931069</v>
+        <v>18.8484340522938</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.94712654567029</v>
+        <v>63.03374641854333</v>
       </c>
       <c r="D29" t="n">
-        <v>20.12933464662436</v>
+        <v>17.48061412757235</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.151951912242</v>
+        <v>59.55294072317803</v>
       </c>
       <c r="D30" t="n">
-        <v>19.55611368739002</v>
+        <v>21.74110692404319</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.63325582485702</v>
+        <v>59.32424851152523</v>
       </c>
       <c r="D31" t="n">
-        <v>17.8878373390077</v>
+        <v>18.65155922526694</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.91600576603107</v>
+        <v>59.79852243468206</v>
       </c>
       <c r="D32" t="n">
-        <v>18.95262724814881</v>
+        <v>18.16913939014343</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>57.54977719029463</v>
+        <v>57.68338064288602</v>
       </c>
       <c r="D33" t="n">
-        <v>21.36131208226777</v>
+        <v>19.36677498721372</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.95276563747669</v>
+        <v>56.74102578974116</v>
       </c>
       <c r="D34" t="n">
-        <v>19.24532237235675</v>
+        <v>18.69818586149306</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.68089788296695</v>
+        <v>60.0542880375665</v>
       </c>
       <c r="D35" t="n">
-        <v>18.66614697707433</v>
+        <v>18.17721521377447</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>58.43182411142197</v>
+        <v>57.73812368438186</v>
       </c>
       <c r="D36" t="n">
-        <v>18.34587132254954</v>
+        <v>17.87692717148046</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.37794119122489</v>
+        <v>52.38727775865443</v>
       </c>
       <c r="D37" t="n">
-        <v>17.60311344893986</v>
+        <v>18.2771311159734</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.32357747577576</v>
+        <v>54.62560844493284</v>
       </c>
       <c r="D38" t="n">
-        <v>18.42134419957411</v>
+        <v>19.48906046244374</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>50.10265769281793</v>
+        <v>53.39667473157056</v>
       </c>
       <c r="D39" t="n">
-        <v>21.72878791377401</v>
+        <v>18.16915059859985</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.98565729702772</v>
+        <v>49.50030154159397</v>
       </c>
       <c r="D40" t="n">
-        <v>18.37288349815536</v>
+        <v>17.20038569926806</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.27573529757524</v>
+        <v>51.96471216819461</v>
       </c>
       <c r="D41" t="n">
-        <v>18.87825654290579</v>
+        <v>19.83960498816792</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.96468666606614</v>
+        <v>49.07281202908214</v>
       </c>
       <c r="D42" t="n">
-        <v>20.85640695065321</v>
+        <v>22.31284276396339</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>44.50405729509833</v>
+        <v>48.94719329800072</v>
       </c>
       <c r="D43" t="n">
-        <v>20.03208514192665</v>
+        <v>20.59284853658707</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>49.05510127585136</v>
+        <v>46.86957850309751</v>
       </c>
       <c r="D44" t="n">
-        <v>21.11337691859013</v>
+        <v>16.83818788266365</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.4735448283711</v>
+        <v>45.01577644542619</v>
       </c>
       <c r="D45" t="n">
-        <v>19.87811380939955</v>
+        <v>20.62905317395641</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.15399713138081</v>
+        <v>48.02846725755246</v>
       </c>
       <c r="D46" t="n">
-        <v>17.51796501823716</v>
+        <v>18.28823575115236</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>43.56090811378193</v>
+        <v>42.47858588301221</v>
       </c>
       <c r="D47" t="n">
-        <v>18.49223240925388</v>
+        <v>19.44494693995975</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.57194014981543</v>
+        <v>43.2674544988256</v>
       </c>
       <c r="D48" t="n">
-        <v>19.55901919780826</v>
+        <v>17.57445487210118</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>40.34966599460663</v>
+        <v>42.34042976060519</v>
       </c>
       <c r="D49" t="n">
-        <v>20.10400765707365</v>
+        <v>20.91016924176457</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.87197565938492</v>
+        <v>38.70036690301878</v>
       </c>
       <c r="D50" t="n">
-        <v>18.02171592281428</v>
+        <v>17.00593068896317</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.53407764609232</v>
+        <v>39.76577983348658</v>
       </c>
       <c r="D51" t="n">
-        <v>20.64369870668764</v>
+        <v>17.99019858993412</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>37.034621744878</v>
+        <v>40.94813585510886</v>
       </c>
       <c r="D52" t="n">
-        <v>18.04596491350308</v>
+        <v>17.38066254609452</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.55487314625749</v>
+        <v>42.66134520051064</v>
       </c>
       <c r="D53" t="n">
-        <v>20.08137923796177</v>
+        <v>19.08586965023119</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.97756010589299</v>
+        <v>37.32195423716245</v>
       </c>
       <c r="D54" t="n">
-        <v>20.47666122274141</v>
+        <v>20.1229275423761</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.81345633019691</v>
+        <v>37.54751721824164</v>
       </c>
       <c r="D55" t="n">
-        <v>19.85956315080118</v>
+        <v>20.80452860155458</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.68196798592969</v>
+        <v>33.60959172628016</v>
       </c>
       <c r="D56" t="n">
-        <v>18.32481832514671</v>
+        <v>20.04561858019679</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>33.436130075462</v>
+        <v>33.05445275224222</v>
       </c>
       <c r="D57" t="n">
-        <v>20.18508542344033</v>
+        <v>21.86624800231909</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.85205625814412</v>
+        <v>33.83697042334678</v>
       </c>
       <c r="D58" t="n">
-        <v>18.58309996403779</v>
+        <v>18.17090809367827</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>30.00198842377075</v>
+        <v>32.90580963911015</v>
       </c>
       <c r="D59" t="n">
-        <v>20.28620525491207</v>
+        <v>20.75818499903259</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.58005972731957</v>
+        <v>33.74492367266072</v>
       </c>
       <c r="D60" t="n">
-        <v>20.36490550846807</v>
+        <v>19.99705012249557</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.89368644631395</v>
+        <v>30.41877034053878</v>
       </c>
       <c r="D61" t="n">
-        <v>20.08835592784206</v>
+        <v>19.65851872170417</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.2950988698116</v>
+        <v>31.12913797179572</v>
       </c>
       <c r="D62" t="n">
-        <v>20.67490516220056</v>
+        <v>20.4258772641686</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.83161016132046</v>
+        <v>29.74759240204775</v>
       </c>
       <c r="D63" t="n">
-        <v>18.29272522055113</v>
+        <v>22.47197180045228</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>30.77820860826792</v>
+        <v>28.11037293496059</v>
       </c>
       <c r="D64" t="n">
-        <v>21.78012606414026</v>
+        <v>20.38860374791112</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.98205797313102</v>
+        <v>28.05512020993987</v>
       </c>
       <c r="D65" t="n">
-        <v>19.3823788803624</v>
+        <v>19.5222262188159</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.54641374266965</v>
+        <v>25.71741032163759</v>
       </c>
       <c r="D66" t="n">
-        <v>20.41442107247573</v>
+        <v>19.7914867561016</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>26.72410470044651</v>
+        <v>24.46524618043025</v>
       </c>
       <c r="D67" t="n">
-        <v>19.4179093464284</v>
+        <v>23.62612682897121</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.80457685074843</v>
+        <v>21.37322731541135</v>
       </c>
       <c r="D68" t="n">
-        <v>18.14522570222982</v>
+        <v>18.10430308105693</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.19276111747592</v>
+        <v>20.51143793108537</v>
       </c>
       <c r="D69" t="n">
-        <v>21.03673899946322</v>
+        <v>21.22849994363896</v>
       </c>
     </row>
   </sheetData>
